--- a/Codemig/Hydraulics/Valve_Results_Mean.xlsx
+++ b/Codemig/Hydraulics/Valve_Results_Mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\GitHub\Jupyter\Codemig\Hydraulics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76C7F5-A017-4F78-ADB0-7393E0429D19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF59C7-06A6-4C1F-98EA-62893B4E5C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>9.7629629629629705E-2</v>
       </c>
@@ -434,8 +434,11 @@
       <c r="I1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>9.7629629629629705E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.38744444444444454</v>
       </c>
@@ -464,8 +467,11 @@
         <f>I1+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0.38744444444444454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.61820370370370359</v>
       </c>
@@ -494,8 +500,11 @@
         <f t="shared" ref="I3:I38" si="0">I2+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.61820370370370359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.80201851851851835</v>
       </c>
@@ -524,8 +533,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0.80201851851851835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.97016666666666662</v>
       </c>
@@ -554,8 +566,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.97016666666666662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.1188148148148147</v>
       </c>
@@ -584,8 +599,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1.1188148148148147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.2516481481481483</v>
       </c>
@@ -614,8 +632,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1.2516481481481483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.3694444444444442</v>
       </c>
@@ -644,8 +665,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1.3694444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.4735740740740737</v>
       </c>
@@ -674,8 +698,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1.4735740740740737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.5630740740740743</v>
       </c>
@@ -704,8 +731,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1.5630740740740743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.6411111111111112</v>
       </c>
@@ -734,8 +764,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1.6411111111111112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.7065555555555554</v>
       </c>
@@ -764,8 +797,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1.7065555555555554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.7606481481481482</v>
       </c>
@@ -794,8 +830,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1.7606481481481482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.8055185185185192</v>
       </c>
@@ -824,8 +863,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1.8055185185185192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.8426851851851842</v>
       </c>
@@ -854,8 +896,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1.8426851851851842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.8739814814814812</v>
       </c>
@@ -884,8 +929,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1.8739814814814812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.898314814814815</v>
       </c>
@@ -914,8 +962,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1.898314814814815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.9183888888888889</v>
       </c>
@@ -944,8 +995,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1.9183888888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.9352407407407413</v>
       </c>
@@ -974,8 +1028,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1.9352407407407413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.9497222222222224</v>
       </c>
@@ -1004,8 +1061,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1.9497222222222224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.9601481481481475</v>
       </c>
@@ -1034,8 +1094,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1.9601481481481475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.9684814814814813</v>
       </c>
@@ -1064,8 +1127,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1.9684814814814813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.9750555555555551</v>
       </c>
@@ -1094,8 +1160,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1.9750555555555551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.9813888888888884</v>
       </c>
@@ -1124,8 +1193,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1.9813888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.9875185185185178</v>
       </c>
@@ -1154,8 +1226,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>1.9875185185185178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.9915555555555551</v>
       </c>
@@ -1184,8 +1259,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>1.9915555555555551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.9946481481481482</v>
       </c>
@@ -1214,8 +1292,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>1.9946481481481482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.9969814814814815</v>
       </c>
@@ -1244,8 +1325,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1.9969814814814815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.9993148148148145</v>
       </c>
@@ -1274,8 +1358,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>1.9993148148148145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.0014074074074069</v>
       </c>
@@ -1304,8 +1391,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>2.0014074074074069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.0027222222222218</v>
       </c>
@@ -1334,8 +1424,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>2.0027222222222218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.0040185185185186</v>
       </c>
@@ -1364,8 +1457,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>2.0040185185185186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.0054259259259255</v>
       </c>
@@ -1394,8 +1490,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>2.0054259259259255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.0060925925925925</v>
       </c>
@@ -1424,8 +1523,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>2.0060925925925925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.007037037037037</v>
       </c>
@@ -1454,8 +1556,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>2.007037037037037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.0082222222222219</v>
       </c>
@@ -1484,8 +1589,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>2.0082222222222219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.0092037037037032</v>
       </c>
@@ -1514,8 +1622,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>2.0092037037037032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.0096481481481483</v>
       </c>
@@ -1543,6 +1654,9 @@
       <c r="I38">
         <f t="shared" si="0"/>
         <v>38</v>
+      </c>
+      <c r="J38">
+        <v>2.0096481481481483</v>
       </c>
     </row>
   </sheetData>
